--- a/Experiments/DBCV.xlsx
+++ b/Experiments/DBCV.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\das-sb\Documents\Experiments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\das-sb\Downloads\thesis_documentation\Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="106">
   <si>
     <t>Clustering Algo</t>
   </si>
@@ -279,6 +279,78 @@
   </si>
   <si>
     <t>3650.774 secs</t>
+  </si>
+  <si>
+    <t>0.159</t>
+  </si>
+  <si>
+    <t>8278.394 secs</t>
+  </si>
+  <si>
+    <t>10.728 secs</t>
+  </si>
+  <si>
+    <t>65.893 secs</t>
+  </si>
+  <si>
+    <t>21.948 secs</t>
+  </si>
+  <si>
+    <t>1.468 secs</t>
+  </si>
+  <si>
+    <t>61.674 secs</t>
+  </si>
+  <si>
+    <t>19.079 secs</t>
+  </si>
+  <si>
+    <t>-0.324</t>
+  </si>
+  <si>
+    <t>1459.672 secs</t>
+  </si>
+  <si>
+    <t>84.790 secs</t>
+  </si>
+  <si>
+    <t>-0.350</t>
+  </si>
+  <si>
+    <t>1499.824 secs</t>
+  </si>
+  <si>
+    <t>Note: roughly 10% outliers with tsne in HDBSCAN</t>
+  </si>
+  <si>
+    <t>1.904 secs</t>
+  </si>
+  <si>
+    <t>227.257 secs</t>
+  </si>
+  <si>
+    <t>65.432 secs</t>
+  </si>
+  <si>
+    <t>236.353 secs</t>
+  </si>
+  <si>
+    <t>6.322 secs</t>
+  </si>
+  <si>
+    <t>-0.209</t>
+  </si>
+  <si>
+    <t>1079.195 secs</t>
+  </si>
+  <si>
+    <t>61.953 secs</t>
+  </si>
+  <si>
+    <t>241.096 secs</t>
+  </si>
+  <si>
+    <t>9.142 secs</t>
   </si>
 </sst>
 </file>
@@ -322,10 +394,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -610,29 +681,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="6" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" customWidth="1"/>
-    <col min="13" max="13" width="29.85546875" customWidth="1"/>
-    <col min="14" max="14" width="80.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="7" width="11.5546875" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" customWidth="1"/>
+    <col min="13" max="13" width="29.88671875" customWidth="1"/>
+    <col min="14" max="14" width="80.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -676,7 +747,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -708,7 +779,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1000</v>
       </c>
@@ -740,7 +811,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1000</v>
       </c>
@@ -772,7 +843,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1000</v>
       </c>
@@ -804,7 +875,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1000</v>
       </c>
@@ -836,14 +907,14 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1000</v>
       </c>
       <c r="B7" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>175</v>
       </c>
       <c r="D7" t="s">
@@ -861,21 +932,21 @@
       <c r="H7" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="3" t="s">
         <v>48</v>
       </c>
       <c r="L7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1000</v>
       </c>
       <c r="B8" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>175</v>
       </c>
       <c r="D8" t="s">
@@ -893,7 +964,7 @@
       <c r="H8" t="s">
         <v>53</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="4" t="s">
         <v>59</v>
       </c>
       <c r="L8" t="s">
@@ -906,14 +977,14 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1000</v>
       </c>
       <c r="B9" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>175</v>
       </c>
       <c r="D9" t="s">
@@ -931,14 +1002,14 @@
       <c r="J9" t="s">
         <v>57</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="3" t="s">
         <v>61</v>
       </c>
       <c r="L9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2000</v>
       </c>
@@ -970,7 +1041,39 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2000</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13">
+        <v>175</v>
+      </c>
+      <c r="D13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13">
+        <v>512</v>
+      </c>
+      <c r="F13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13">
+        <v>154</v>
+      </c>
+      <c r="H13" t="s">
+        <v>89</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2000</v>
       </c>
@@ -999,7 +1102,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2000</v>
       </c>
@@ -1031,7 +1134,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2000</v>
       </c>
@@ -1059,11 +1162,11 @@
       <c r="K16" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="L16" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2000</v>
       </c>
@@ -1088,8 +1191,133 @@
       <c r="J17" t="s">
         <v>79</v>
       </c>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
+      <c r="K17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2000</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18">
+        <v>175</v>
+      </c>
+      <c r="D18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18">
+        <v>512</v>
+      </c>
+      <c r="F18" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18">
+        <v>154</v>
+      </c>
+      <c r="H18" t="s">
+        <v>86</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2000</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19">
+        <v>175</v>
+      </c>
+      <c r="D19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19">
+        <v>512</v>
+      </c>
+      <c r="F19" t="s">
+        <v>98</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>5000</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>1586</v>
+      </c>
+      <c r="D22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22">
+        <v>512</v>
+      </c>
+      <c r="F22" t="s">
+        <v>92</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>5000</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24">
+        <v>175</v>
+      </c>
+      <c r="D24" t="s">
+        <v>105</v>
+      </c>
+      <c r="E24">
+        <v>512</v>
+      </c>
+      <c r="F24" t="s">
+        <v>103</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>95</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
